--- a/artfynd/A 50551-2024 artfynd.xlsx
+++ b/artfynd/A 50551-2024 artfynd.xlsx
@@ -3406,7 +3406,7 @@
         <v>130943137</v>
       </c>
       <c r="B24" t="n">
-        <v>56242</v>
+        <v>56246</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>94188964</v>
       </c>
       <c r="B25" t="n">
-        <v>58344</v>
+        <v>58348</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
